--- a/workforce_plot_data/SC Report WF Charts_All_November FINAL.xlsx
+++ b/workforce_plot_data/SC Report WF Charts_All_November FINAL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel.sharepoint.com/sites/Offshoresupplychainanalysis/Shared Documents/General/Workforce, regionality/Final Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mshields\Documents\Projects\Supply Chain Roadmap\Analysis repos\Roadmap\workforce_plot_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{B97059CB-78DA-4C49-A29C-D7A2608C22C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A3D5E74-F51C-4670-BDEC-A89EACF26B2E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0D77D0-0C09-452E-A827-8FB64F50B6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{494438DD-705D-498A-9699-0C05F50B900C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="10" xr2:uid="{494438DD-705D-498A-9699-0C05F50B900C}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure ES-7" sheetId="2" r:id="rId1"/>
@@ -2134,6 +2134,12 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>203.67000000000002</c:v>
                 </c:pt>
@@ -2561,6 +2567,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0">
@@ -13128,6 +13137,21 @@
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>110.9</c:v>
                 </c:pt>
@@ -14250,6 +14274,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -22284,10 +22317,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -22590,23 +22619,23 @@
   </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2020</v>
       </c>
@@ -22656,7 +22685,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -22709,7 +22738,7 @@
         <v>11099.95</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -22762,7 +22791,7 @@
         <v>44297.750000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>118</v>
       </c>
@@ -22830,36 +22859,36 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:R22"/>
+      <selection activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>2020</v>
       </c>
@@ -22909,7 +22938,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>59</v>
       </c>
@@ -22962,7 +22991,7 @@
         <v>1680.0959999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>60</v>
       </c>
@@ -23015,7 +23044,7 @@
         <v>8760.3200000000015</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>61</v>
       </c>
@@ -23068,7 +23097,7 @@
         <v>1548.3100000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>62</v>
       </c>
@@ -23121,7 +23150,7 @@
         <v>3547.7999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>63</v>
       </c>
@@ -23174,7 +23203,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>64</v>
       </c>
@@ -23227,7 +23256,7 @@
         <v>922.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>65</v>
       </c>
@@ -23246,6 +23275,12 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14">
         <v>203.67000000000002</v>
       </c>
@@ -23274,7 +23309,7 @@
         <v>2036.7</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>66</v>
       </c>
@@ -23327,7 +23362,7 @@
         <v>369.6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>67</v>
       </c>
@@ -23380,7 +23415,7 @@
         <v>763.83999999999992</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>68</v>
       </c>
@@ -23399,7 +23434,9 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17" s="3">
         <v>133.18000000000004</v>
       </c>
@@ -23431,7 +23468,7 @@
         <v>1198.6200000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>69</v>
       </c>
@@ -23484,7 +23521,7 @@
         <v>858.39999999999986</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>70</v>
       </c>
@@ -23537,7 +23574,7 @@
         <v>406.00000000000006</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>71</v>
       </c>
@@ -23590,7 +23627,7 @@
         <v>3105.9000000000005</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>81</v>
       </c>
@@ -23643,7 +23680,7 @@
         <v>2501.25</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>74</v>
       </c>
@@ -23709,28 +23746,28 @@
   </sheetPr>
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView zoomScale="66" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B6" t="s" cm="1">
         <v>95</v>
       </c>
@@ -23804,7 +23841,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>123</v>
       </c>
@@ -23881,7 +23918,7 @@
         <v>827.91169811320776</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -23958,7 +23995,7 @@
         <v>1774.8000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -24052,22 +24089,22 @@
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -24075,7 +24112,7 @@
         <v>0.69199999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -24083,7 +24120,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -24091,7 +24128,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -24099,7 +24136,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -24121,27 +24158,30 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2020</v>
       </c>
@@ -24191,7 +24231,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -24244,7 +24284,7 @@
         <v>11099.95</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -24297,7 +24337,7 @@
         <v>44297.750000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -24367,24 +24407,24 @@
       <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2020</v>
       </c>
@@ -24434,7 +24474,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -24487,7 +24527,7 @@
         <v>11099.95</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -24540,7 +24580,7 @@
         <v>29013.335999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -24606,23 +24646,23 @@
   </sheetPr>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -24636,7 +24676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -24650,7 +24690,7 @@
         <v>6.7080550862066755</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -24664,7 +24704,7 @@
         <v>1.699059571777922</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -24678,7 +24718,7 @@
         <v>3.6897633504716048</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -24692,7 +24732,7 @@
         <v>4.101457082232904</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -24706,7 +24746,7 @@
         <v>13.063596196841285</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -24720,7 +24760,7 @@
         <v>6.6974516327465414</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -24734,7 +24774,7 @@
         <v>11.400286239188253</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -24748,7 +24788,7 @@
         <v>4.9218290463578782</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -24762,7 +24802,7 @@
         <v>7.1588474253107961</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -24776,7 +24816,7 @@
         <v>7.6083582512403476</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -24790,7 +24830,7 @@
         <v>1.2335574588055604</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -24804,7 +24844,7 @@
         <v>1.9463609613417896</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -24818,7 +24858,7 @@
         <v>6.666195671593016</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -24832,7 +24872,7 @@
         <v>9.1717336510459937</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -24846,7 +24886,7 @@
         <v>3.187000137232856</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -24860,7 +24900,7 @@
         <v>2.3551319683964733</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -24874,7 +24914,7 @@
         <v>6.2392199058931546</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -24888,7 +24928,7 @@
         <v>4.186633553471574</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -24902,7 +24942,7 @@
         <v>7.1388075959358908</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -24916,7 +24956,7 @@
         <v>6.527035258895185</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -24930,7 +24970,7 @@
         <v>10.766083679847993</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -24944,7 +24984,7 @@
         <v>11.623606951375317</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -24958,7 +24998,7 @@
         <v>7.0346694632385649</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -24972,7 +25012,7 @@
         <v>2.6982377040331382</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -24986,7 +25026,7 @@
         <v>2.7263013028224861</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -25000,7 +25040,7 @@
         <v>1.5237448323798444</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -25014,7 +25054,7 @@
         <v>1.9843157201459034</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -25028,7 +25068,7 @@
         <v>3.8187992194466127</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -25042,7 +25082,7 @@
         <v>9.304900939396596</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -25056,7 +25096,7 @@
         <v>8.3563282710643101</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -25070,7 +25110,7 @@
         <v>1.2840559058184862</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -25084,7 +25124,7 @@
         <v>9.8740895786335905</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -25098,7 +25138,7 @@
         <v>11.716668072852052</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -25112,7 +25152,7 @@
         <v>1.6464796538686388</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -25126,7 +25166,7 @@
         <v>12.4863546823267</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -25140,7 +25180,7 @@
         <v>5.820246804934655</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -25154,7 +25194,7 @@
         <v>6.256958440497856</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -25168,7 +25208,7 @@
         <v>12.874476885792959</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -25182,7 +25222,7 @@
         <v>7.7228609725818229</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -25196,7 +25236,7 @@
         <v>11.003247160429465</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -25210,7 +25250,7 @@
         <v>1.6408672772155171</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -25224,7 +25264,7 @@
         <v>7.5209666435655924</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -25238,7 +25278,7 @@
         <v>12.02236080537317</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -25252,7 +25292,7 @@
         <v>6.7955510054208483</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -25266,7 +25306,7 @@
         <v>6.7905118197103222</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -25280,7 +25320,7 @@
         <v>8.8432213155135244</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -25294,7 +25334,7 @@
         <v>5.8245961926746288</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -25308,7 +25348,7 @@
         <v>5.7678642971150307</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -25322,7 +25362,7 @@
         <v>9.0197046670100285</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -25350,23 +25390,26 @@
   </sheetPr>
   <dimension ref="A1:AY7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -25518,7 +25561,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -25673,7 +25716,7 @@
         <v>67.091425443354822</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -25828,7 +25871,7 @@
         <v>1065.8768727112893</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -25997,32 +26040,32 @@
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:R22"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>2020</v>
       </c>
@@ -26072,7 +26115,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>59</v>
       </c>
@@ -26125,7 +26168,7 @@
         <v>2499.6999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -26178,7 +26221,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>61</v>
       </c>
@@ -26231,7 +26274,7 @@
         <v>1164.0999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>62</v>
       </c>
@@ -26284,7 +26327,7 @@
         <v>1626.6000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -26337,7 +26380,7 @@
         <v>555.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>64</v>
       </c>
@@ -26390,7 +26433,7 @@
         <v>313.75</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>65</v>
       </c>
@@ -26443,7 +26486,7 @@
         <v>581.65000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>66</v>
       </c>
@@ -26496,7 +26539,7 @@
         <v>461.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -26549,7 +26592,7 @@
         <v>941.6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>68</v>
       </c>
@@ -26602,7 +26645,7 @@
         <v>910.2</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>69</v>
       </c>
@@ -26655,7 +26698,7 @@
         <v>239.2</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -26708,7 +26751,7 @@
         <v>186.95</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>71</v>
       </c>
@@ -26761,7 +26804,7 @@
         <v>469.70000000000005</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>72</v>
       </c>
@@ -26814,7 +26857,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>73</v>
       </c>
@@ -26867,7 +26910,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>74</v>
       </c>
@@ -26933,32 +26976,32 @@
   </sheetPr>
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:R22"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>2020</v>
       </c>
@@ -27008,7 +27051,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>59</v>
       </c>
@@ -27061,7 +27104,7 @@
         <v>2499.6999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -27114,7 +27157,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>61</v>
       </c>
@@ -27167,7 +27210,7 @@
         <v>1164.0999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>62</v>
       </c>
@@ -27220,7 +27263,7 @@
         <v>1626.6000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>63</v>
       </c>
@@ -27273,7 +27316,7 @@
         <v>555.5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>64</v>
       </c>
@@ -27326,7 +27369,7 @@
         <v>313.75</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>65</v>
       </c>
@@ -27379,7 +27422,7 @@
         <v>581.65000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>66</v>
       </c>
@@ -27432,7 +27475,7 @@
         <v>461.20000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -27485,7 +27528,7 @@
         <v>941.6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>68</v>
       </c>
@@ -27538,7 +27581,7 @@
         <v>910.2</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>69</v>
       </c>
@@ -27591,7 +27634,7 @@
         <v>239.2</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>70</v>
       </c>
@@ -27644,7 +27687,7 @@
         <v>186.95</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>71</v>
       </c>
@@ -27697,7 +27740,7 @@
         <v>469.70000000000005</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>75</v>
       </c>
@@ -27750,13 +27793,28 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>76</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="I21">
         <v>110.9</v>
       </c>
@@ -27788,7 +27846,7 @@
         <v>110.9</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>74</v>
       </c>
@@ -27855,36 +27913,36 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W80" sqref="W80"/>
+      <selection activeCell="F14" sqref="F14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2020</v>
       </c>
@@ -27934,7 +27992,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -27987,7 +28045,7 @@
         <v>1909.1999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -28040,7 +28098,7 @@
         <v>21900.800000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -28093,7 +28151,7 @@
         <v>1629.8000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -28146,7 +28204,7 @@
         <v>3547.7999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -28199,7 +28257,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -28218,6 +28276,15 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14">
         <v>461.25</v>
       </c>
@@ -28243,7 +28310,7 @@
         <v>922.5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -28296,7 +28363,7 @@
         <v>2036.7</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -28349,7 +28416,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -28402,7 +28469,7 @@
         <v>1909.6</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -28455,7 +28522,7 @@
         <v>1331.8000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -28508,7 +28575,7 @@
         <v>858.39999999999986</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -28561,7 +28628,7 @@
         <v>406.00000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -28614,7 +28681,7 @@
         <v>3105.9000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -28667,7 +28734,7 @@
         <v>2501.25</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -28739,15 +28806,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061F0562B1FAF864A9763A8A82C259F65" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a5e0014e64113d2c9d5ac420e7c2b652">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69ca3097-9b02-4c7e-a53c-44fd75dac719" xmlns:ns3="9d243334-91b0-49f8-80ba-e6cbe787c2a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77eb6c2c731613b597d26c214f6dec4d" ns2:_="" ns3:_="">
     <xsd:import namespace="69ca3097-9b02-4c7e-a53c-44fd75dac719"/>
@@ -28952,6 +29010,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FD7AAD0-4E48-467A-B7CB-0643A2E01611}">
   <ds:schemaRefs>
@@ -28970,14 +29037,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AA994C4-7FB4-44A4-9942-26B364BD1590}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35BD9695-F285-46D0-870D-AF52D55B69EE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28994,4 +29053,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AA994C4-7FB4-44A4-9942-26B364BD1590}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>